--- a/danh_sach_mon_chung_rieng.xlsx
+++ b/danh_sach_mon_chung_rieng.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="331">
   <si>
     <t>MaHP</t>
   </si>
@@ -708,9 +708,6 @@
   </si>
   <si>
     <t>IS21A</t>
-  </si>
-  <si>
-    <t>IS41A</t>
   </si>
   <si>
     <t>LAW03A</t>
@@ -2184,7 +2181,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C146"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2209,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2220,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2231,7 +2228,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2242,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2253,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2264,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2275,7 +2272,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2286,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2297,7 +2294,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2308,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2319,7 +2316,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2330,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2341,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2352,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2363,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2374,7 +2371,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2385,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2396,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2407,7 +2404,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2418,7 +2415,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2429,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2440,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2451,7 +2448,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2462,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2473,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2484,7 +2481,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2495,7 +2492,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2506,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2517,7 +2514,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2528,7 +2525,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2539,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2550,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2561,7 +2558,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2572,7 +2569,7 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2583,7 +2580,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2594,7 +2591,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2605,7 +2602,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2616,7 +2613,7 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2627,7 +2624,7 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2638,7 +2635,7 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2649,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2660,7 +2657,7 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2671,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2682,7 +2679,7 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2693,7 +2690,7 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2704,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2715,7 +2712,7 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2726,7 +2723,7 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2737,7 +2734,7 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2748,7 +2745,7 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2759,7 +2756,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2770,7 +2767,7 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2781,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2792,7 +2789,7 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2803,7 +2800,7 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2814,7 +2811,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2825,7 +2822,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2836,7 +2833,7 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2847,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2858,7 +2855,7 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2869,7 +2866,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2880,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2891,7 +2888,7 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2902,7 +2899,7 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2913,7 +2910,7 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2924,7 +2921,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2935,7 +2932,7 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2946,7 +2943,7 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2957,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2968,7 +2965,7 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2979,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2990,7 +2987,7 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3001,7 +2998,7 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3012,7 +3009,7 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3023,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3034,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3045,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3056,7 +3053,7 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3067,7 +3064,7 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3078,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3089,7 +3086,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3100,7 +3097,7 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3111,7 +3108,7 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3122,7 +3119,7 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3133,7 +3130,7 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3144,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3155,7 +3152,7 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3166,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3177,7 +3174,7 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3188,7 +3185,7 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3199,7 +3196,7 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3210,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3221,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3232,7 +3229,7 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3243,7 +3240,7 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3276,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3287,7 +3284,7 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3298,7 +3295,7 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3309,7 +3306,7 @@
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3320,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3331,7 +3328,7 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3342,7 +3339,7 @@
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3353,7 +3350,7 @@
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3364,7 +3361,7 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3430,7 +3427,7 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3441,7 +3438,7 @@
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3452,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3463,7 +3460,7 @@
         <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3474,7 +3471,7 @@
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3485,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3496,7 +3493,7 @@
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3507,7 +3504,7 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3529,7 +3526,7 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3540,7 +3537,7 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3551,7 +3548,7 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3562,7 +3559,7 @@
         <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3573,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3584,7 +3581,7 @@
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3595,7 +3592,7 @@
         <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3606,7 +3603,7 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3617,7 +3614,7 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3639,7 +3636,7 @@
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3650,7 +3647,7 @@
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3661,7 +3658,7 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3672,7 +3669,7 @@
         <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3683,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3694,7 +3691,7 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3705,7 +3702,7 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3716,7 +3713,7 @@
         <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3727,7 +3724,7 @@
         <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3738,7 +3735,7 @@
         <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3749,7 +3746,7 @@
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3760,7 +3757,7 @@
         <v>1</v>
       </c>
       <c r="C143" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3771,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3783,17 +3780,6 @@
       </c>
       <c r="C145" t="s">
         <v>330</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" t="s">
-        <v>283</v>
-      </c>
-      <c r="B146">
-        <v>1</v>
-      </c>
-      <c r="C146" t="s">
-        <v>331</v>
       </c>
     </row>
   </sheetData>
